--- a/Jupiter Notebook/Assessment_framework.xlsx
+++ b/Jupiter Notebook/Assessment_framework.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPC_CS\OneDrive\Documents\GitHub\CtrlFindr\Jupiter Notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPC_CS\OneDrive - CGIAR\PCAA_Initiatives\Zambia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A049B-5D19-450F-8BBC-8E891453EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27CFFF-F570-403A-B999-3F2332887346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="809" xr2:uid="{E0E84FBA-2FF9-411E-86DE-EEC4B344EB29}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="809" activeTab="4" xr2:uid="{E0E84FBA-2FF9-411E-86DE-EEC4B344EB29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="18" r:id="rId1"/>
-    <sheet name="set_search_strings" sheetId="16" r:id="rId2"/>
-    <sheet name="set_co_occurrences" sheetId="12" r:id="rId3"/>
-    <sheet name="set_doc_conditionals" sheetId="13" r:id="rId4"/>
-    <sheet name="set_keywords" sheetId="17" r:id="rId5"/>
+    <sheet name="Instructions" sheetId="19" r:id="rId1"/>
+    <sheet name="search_strings" sheetId="16" r:id="rId2"/>
+    <sheet name="co_occurrences" sheetId="12" r:id="rId3"/>
+    <sheet name="doc_conditionals" sheetId="13" r:id="rId4"/>
+    <sheet name="taxonomy" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>variable</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>variable_number</t>
-  </si>
-  <si>
-    <t>search_type</t>
   </si>
   <si>
     <t>group_1</t>
@@ -75,16 +72,31 @@
     <t>description</t>
   </si>
   <si>
-    <t>g2v</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>or</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>b2v</t>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>name</t>
@@ -102,55 +114,10 @@
     <t>group</t>
   </si>
   <si>
-    <t>1.1</t>
+    <t>operator_3</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>n-gram</t>
-  </si>
-  <si>
-    <t>or add a sentence</t>
-  </si>
-  <si>
-    <t>word*</t>
-  </si>
-  <si>
-    <t>multip* word*</t>
-  </si>
-  <si>
-    <t>titleoffirstlist</t>
-  </si>
-  <si>
-    <t>titleofsecondlist</t>
-  </si>
-  <si>
-    <t>titleofthridlist</t>
-  </si>
-  <si>
-    <t>doc_mentionsfirstlist</t>
-  </si>
-  <si>
-    <t>second_third</t>
+    <t>group_4</t>
   </si>
   <si>
     <t>first variable</t>
@@ -159,16 +126,31 @@
     <t>proxy 1</t>
   </si>
   <si>
+    <t>g2v</t>
+  </si>
+  <si>
+    <t>titleoffirstlist</t>
+  </si>
+  <si>
+    <t>add description</t>
+  </si>
+  <si>
     <t>proxy 2</t>
+  </si>
+  <si>
+    <t>b2v</t>
+  </si>
+  <si>
+    <t>titleofsecondlist</t>
+  </si>
+  <si>
+    <t>doc_mentionsfirstlist</t>
   </si>
   <si>
     <t>second variable</t>
   </si>
   <si>
-    <t>add description</t>
-  </si>
-  <si>
-    <t>2.4</t>
+    <t>second_third</t>
   </si>
   <si>
     <t>proxy 3</t>
@@ -177,40 +159,40 @@
     <t>proxy 4</t>
   </si>
   <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>titleofthridlist</t>
+  </si>
+  <si>
     <t>third variable</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>word*</t>
+  </si>
+  <si>
+    <t>n-gram</t>
+  </si>
+  <si>
+    <t>multip* word*</t>
+  </si>
+  <si>
+    <t>or add a sentence</t>
   </si>
   <si>
     <t>This workbook serves to run the CtrlFindr script.</t>
   </si>
   <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
     <t>The workbook includes four tabs:</t>
   </si>
   <si>
-    <t>set_co_occurrences: this is an optional tab that can be filled if you want to look for co-occurring lists of words within a given distance.</t>
-  </si>
-  <si>
-    <t>set_keywords: this tab serves to fill in the taxonomy on which the search strings rely.</t>
-  </si>
-  <si>
-    <t>set_doc_conditionals: this is an optional tab that can be filled if you want to know if a sentence is from a document that mentions a specific list of words.</t>
-  </si>
-  <si>
-    <t>The first row of the set_keywords should feature the titles of the lists of words that you want to use. As a naming convention, avoid using spaces in the tites.</t>
-  </si>
-  <si>
-    <t>In parent_variable_number add the no. of the variable, while in variable_number add the no. of the proxy.</t>
-  </si>
-  <si>
-    <t>INSTRUCTIONS</t>
-  </si>
-  <si>
-    <t>set_search_strings: This tab serves to fill in the search strings.</t>
-  </si>
-  <si>
-    <t>In search_type specify the type of search sting that you plan to use. You can write g2v if you want to search one list of words or b2v if you want to search combination of lists or variables.</t>
-  </si>
-  <si>
-    <t>If you use b2v, know that the string works as "(list1) operator (list2 operator list3)"</t>
+    <t>search_strings: This tab serves to fill in the search strings.</t>
   </si>
   <si>
     <t xml:space="preserve">Specify the lists of words in group1 and group2 and the distance between lists in the distance column. </t>
@@ -219,16 +201,59 @@
     <t xml:space="preserve">Add the name of the co-occurrence in the name column.  As a naming convention, use the names of the two lists separated by an underscore. </t>
   </si>
   <si>
-    <t>Specify the lists you want to use as a conditional in the column called group and specify the name in the column name.  As a naming convention, write the name of the conditional after "doc_"</t>
+    <t>You can search for an individual list of words/co-occurrence or multiple lists/co-occurrences. The search will be executed for each sentence. The results in the codebook.tsv show the number of sentences per document that have had a positive finding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seach strings with two operators equal to ((group_1 operator1 group_2)) operator 2 group_3. </t>
+  </si>
+  <si>
+    <t>Seach strings with three operators equal to ((group_1 operator1 group_2)) operator 2 ((group_3 operator3 group_4)).</t>
+  </si>
+  <si>
+    <t>co_occurrences: this is an optional tab that can be filled if you want to look for co-occurring lists of words within a given distance.</t>
+  </si>
+  <si>
+    <t>doc_conditionals: this is an optional tab that can be filled if you want to know if a sentence is from a document that mentions a specific list of words.</t>
+  </si>
+  <si>
+    <t>If you need help running the code contact@scartozzi.eu</t>
+  </si>
+  <si>
+    <t>In parent_variable_number add the no. of the variable, while in variable_number add the no. of the proxy. The variable_number can range from n.1 to n.9.</t>
+  </si>
+  <si>
+    <t>Operators can and/or</t>
+  </si>
+  <si>
+    <t>In the group 1 to 4 you need to include the title of a list contained in the taxonomy or the title of a co-occurrence or doc_conditionals</t>
+  </si>
+  <si>
+    <t>taxonomy: add the taxonomy to this tab</t>
+  </si>
+  <si>
+    <t>The first row of the the tab should feature the titles of the lists of words that you want to use. As a naming convention, avoid using spaces or punctuation in the tites.</t>
+  </si>
+  <si>
+    <t>You can truncate words using the symbol *. For example 'clima* chang*' can be either 'climatic changes' or 'climate change'</t>
+  </si>
+  <si>
+    <t>Specify the lists you want to use as a conditional in the column called group, and specify the name of the doc_conditionals in the column name.  As a naming convention, write the name of the conditional after "doc_"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -250,6 +275,14 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,24 +350,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{744945CE-9A5E-4D24-96D7-7841EB597150}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CBD669CF-EE02-40F9-A889-31FF03AD9C7D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,113 +686,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7856ED70-E679-4AD3-8D51-451E67B22589}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F175F6-E1D9-44DA-89EE-813FE91CEB6C}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>54</v>
+      <c r="A5" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>49</v>
+      <c r="B10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>57</v>
+      <c r="A14" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DCB621-90FB-4313-B173-3C947AC00BC9}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.4140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="8.6640625" style="5"/>
-    <col min="6" max="6" width="23.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="5"/>
-    <col min="8" max="8" width="16.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="5"/>
-    <col min="10" max="10" width="15.83203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="64" style="4" customWidth="1"/>
-    <col min="12" max="36" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="40.08203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125" style="5"/>
+    <col min="5" max="5" width="23.08203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="5"/>
+    <col min="7" max="7" width="16.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" style="5"/>
+    <col min="9" max="9" width="15.9140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.9140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="64" style="4" customWidth="1"/>
+    <col min="13" max="37" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -785,126 +849,129 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -912,105 +979,105 @@
       <c r="H6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>41</v>
+      <c r="J9" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1021,30 +1088,30 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.58203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="4"/>
-    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
-    <col min="5" max="37" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="8.58203125" style="4"/>
+    <col min="4" max="4" width="13.58203125" style="4" customWidth="1"/>
+    <col min="5" max="37" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1058,12 +1125,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1072,30 +1140,30 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.08203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.4140625" style="4" customWidth="1"/>
-    <col min="3" max="42" width="8.6640625" style="2"/>
+    <col min="3" max="42" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1104,11 +1172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144A7A1C-B236-45DD-A27C-4759846DEEC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75159BAE-B6FF-404A-A91C-C3A6D517DBDE}">
   <dimension ref="A1:BB145"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1148,9 +1216,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1181,13 +1255,13 @@
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
       <c r="AG1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
@@ -1210,9 +1284,15 @@
       <c r="BB1" s="6"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1243,10 +1323,10 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
@@ -1270,8 +1350,12 @@
       <c r="BB2" s="4"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1303,10 +1387,10 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
@@ -1330,7 +1414,9 @@
       <c r="BB3" s="4"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1363,7 +1449,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -7550,7 +7636,7 @@
     <row r="115" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <f>COUNTA(A1:AN111)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -9287,11 +9373,11 @@
       <c r="BB145" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AM2:AM19">
-    <sortCondition ref="AM19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z2:Z31">
+    <sortCondition ref="Z2:Z31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9547,6 +9633,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d62478f3-abc9-4be8-91aa-264f05d05757" xsi:nil="true"/>
@@ -9556,15 +9651,6 @@
     <Notes xmlns="7931583f-595d-4ae5-a577-d4fbce6d314b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9587,6 +9673,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B577C5-B772-4953-B5BF-E59CD142F602}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D505E4-F724-44E7-A76B-5FC6FF64D4B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9595,12 +9689,4 @@
     <ds:schemaRef ds:uri="7931583f-595d-4ae5-a577-d4fbce6d314b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B577C5-B772-4953-B5BF-E59CD142F602}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>